--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H2">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I2">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J2">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2667246666666667</v>
+        <v>0.08146333333333333</v>
       </c>
       <c r="N2">
-        <v>0.8001740000000001</v>
+        <v>0.24439</v>
       </c>
       <c r="O2">
-        <v>0.0541745827576984</v>
+        <v>0.04956746861823912</v>
       </c>
       <c r="P2">
-        <v>0.07300781059322826</v>
+        <v>0.05040207820148787</v>
       </c>
       <c r="Q2">
-        <v>1.300963786982222</v>
+        <v>0.4347236745988889</v>
       </c>
       <c r="R2">
-        <v>11.70867408284</v>
+        <v>3.91251307139</v>
       </c>
       <c r="S2">
-        <v>0.006548164146158658</v>
+        <v>0.004735737245362053</v>
       </c>
       <c r="T2">
-        <v>0.009029734721136218</v>
+        <v>0.004839578432659245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H3">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I3">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J3">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.032601</v>
       </c>
       <c r="O3">
-        <v>0.002207201899191583</v>
+        <v>0.006612173347613296</v>
       </c>
       <c r="P3">
-        <v>0.002974512584950067</v>
+        <v>0.006723508128183256</v>
       </c>
       <c r="Q3">
-        <v>0.05300437207333334</v>
+        <v>0.05799102465566667</v>
       </c>
       <c r="R3">
-        <v>0.47703934866</v>
+        <v>0.521919221901</v>
       </c>
       <c r="S3">
-        <v>0.0002667878478042506</v>
+        <v>0.000631735218036942</v>
       </c>
       <c r="T3">
-        <v>0.0003678929603358292</v>
+        <v>0.0006455873664353043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H4">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I4">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J4">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.644775</v>
+        <v>1.192621666666667</v>
       </c>
       <c r="N4">
-        <v>1.934325</v>
+        <v>3.577865</v>
       </c>
       <c r="O4">
-        <v>0.1309605783151976</v>
+        <v>0.7256668075935845</v>
       </c>
       <c r="P4">
-        <v>0.1764876554671187</v>
+        <v>0.7378854761830124</v>
       </c>
       <c r="Q4">
-        <v>3.1449244505</v>
+        <v>6.364346413596111</v>
       </c>
       <c r="R4">
-        <v>28.3043200545</v>
+        <v>57.279117722365</v>
       </c>
       <c r="S4">
-        <v>0.01582940411962691</v>
+        <v>0.06933110413428251</v>
       </c>
       <c r="T4">
-        <v>0.02182830436187856</v>
+        <v>0.07085133716177572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H5">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I5">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J5">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>3.8101695</v>
+        <v>0.08164349999999999</v>
       </c>
       <c r="N5">
-        <v>7.620339</v>
+        <v>0.163287</v>
       </c>
       <c r="O5">
-        <v>0.7738854657809741</v>
+        <v>0.04967709346699789</v>
       </c>
       <c r="P5">
-        <v>0.6952791097538666</v>
+        <v>0.03367569926464401</v>
       </c>
       <c r="Q5">
-        <v>18.58430494529</v>
+        <v>0.4356851220645</v>
       </c>
       <c r="R5">
-        <v>111.50582967174</v>
+        <v>2.614110732387</v>
       </c>
       <c r="S5">
-        <v>0.09354071231014978</v>
+        <v>0.004746210938971113</v>
       </c>
       <c r="T5">
-        <v>0.08599334601615204</v>
+        <v>0.003233521189629813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H6">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I6">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J6">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.190892</v>
+        <v>0.2768883333333333</v>
       </c>
       <c r="N6">
-        <v>0.5726760000000001</v>
+        <v>0.830665</v>
       </c>
       <c r="O6">
-        <v>0.03877217124693842</v>
+        <v>0.1684764569735652</v>
       </c>
       <c r="P6">
-        <v>0.05225091160083631</v>
+        <v>0.1713132382226724</v>
       </c>
       <c r="Q6">
-        <v>0.9310859109066669</v>
+        <v>1.477596223907222</v>
       </c>
       <c r="R6">
-        <v>8.379773198160002</v>
+        <v>13.298366015165</v>
       </c>
       <c r="S6">
-        <v>0.004686451260057883</v>
+        <v>0.01609644903195168</v>
       </c>
       <c r="T6">
-        <v>0.00646248486099449</v>
+        <v>0.01644939816999423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>10.949652</v>
       </c>
       <c r="I7">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J7">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2667246666666667</v>
+        <v>0.08146333333333333</v>
       </c>
       <c r="N7">
-        <v>0.8001740000000001</v>
+        <v>0.24439</v>
       </c>
       <c r="O7">
-        <v>0.0541745827576984</v>
+        <v>0.04956746861823912</v>
       </c>
       <c r="P7">
-        <v>0.07300781059322826</v>
+        <v>0.05040207820148787</v>
       </c>
       <c r="Q7">
-        <v>0.973514093272</v>
+        <v>0.29733171692</v>
       </c>
       <c r="R7">
-        <v>8.761626839448001</v>
+        <v>2.67598545228</v>
       </c>
       <c r="S7">
-        <v>0.004900005784273975</v>
+        <v>0.003239034283892413</v>
       </c>
       <c r="T7">
-        <v>0.006756970560975148</v>
+        <v>0.003310057051480521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>10.949652</v>
       </c>
       <c r="I8">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J8">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.032601</v>
       </c>
       <c r="O8">
-        <v>0.002207201899191583</v>
+        <v>0.006612173347613296</v>
       </c>
       <c r="P8">
-        <v>0.002974512584950067</v>
+        <v>0.006723508128183256</v>
       </c>
       <c r="Q8">
         <v>0.039663289428</v>
@@ -948,10 +948,10 @@
         <v>0.356969604852</v>
       </c>
       <c r="S8">
-        <v>0.0001996379394645613</v>
+        <v>0.0004320788767509985</v>
       </c>
       <c r="T8">
-        <v>0.0002752951198843637</v>
+        <v>0.0004415531320238818</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>10.949652</v>
       </c>
       <c r="I9">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J9">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.644775</v>
+        <v>1.192621666666667</v>
       </c>
       <c r="N9">
-        <v>1.934325</v>
+        <v>3.577865</v>
       </c>
       <c r="O9">
-        <v>0.1309605783151976</v>
+        <v>0.7256668075935845</v>
       </c>
       <c r="P9">
-        <v>0.1764876554671187</v>
+        <v>0.7378854761830124</v>
       </c>
       <c r="Q9">
-        <v>2.3533539561</v>
+        <v>4.352930739220001</v>
       </c>
       <c r="R9">
-        <v>21.1801856049</v>
+        <v>39.17637665298</v>
       </c>
       <c r="S9">
-        <v>0.01184517828455531</v>
+        <v>0.04741940094987</v>
       </c>
       <c r="T9">
-        <v>0.01633416866876236</v>
+        <v>0.0484591729305428</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>10.949652</v>
       </c>
       <c r="I10">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J10">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>3.8101695</v>
+        <v>0.08164349999999999</v>
       </c>
       <c r="N10">
-        <v>7.620339</v>
+        <v>0.163287</v>
       </c>
       <c r="O10">
-        <v>0.7738854657809741</v>
+        <v>0.04967709346699789</v>
       </c>
       <c r="P10">
-        <v>0.6952791097538666</v>
+        <v>0.03367569926464401</v>
       </c>
       <c r="Q10">
-        <v>13.906676695338</v>
+        <v>0.297989304354</v>
       </c>
       <c r="R10">
-        <v>83.44006017202801</v>
+        <v>1.787935826124</v>
       </c>
       <c r="S10">
-        <v>0.06999672292175559</v>
+        <v>0.003246197825896765</v>
       </c>
       <c r="T10">
-        <v>0.06434901194946449</v>
+        <v>0.00221158511299603</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>10.949652</v>
       </c>
       <c r="I11">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J11">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.190892</v>
+        <v>0.2768883333333333</v>
       </c>
       <c r="N11">
-        <v>0.5726760000000001</v>
+        <v>0.830665</v>
       </c>
       <c r="O11">
-        <v>0.03877217124693842</v>
+        <v>0.1684764569735652</v>
       </c>
       <c r="P11">
-        <v>0.05225091160083631</v>
+        <v>0.1713132382226724</v>
       </c>
       <c r="Q11">
-        <v>0.6967336565280001</v>
+        <v>1.01061029762</v>
       </c>
       <c r="R11">
-        <v>6.270602908752001</v>
+        <v>9.095492678579999</v>
       </c>
       <c r="S11">
-        <v>0.003506881893831696</v>
+        <v>0.01100925738953923</v>
       </c>
       <c r="T11">
-        <v>0.004835891784758071</v>
+        <v>0.01125065894949903</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H12">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I12">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J12">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2667246666666667</v>
+        <v>0.08146333333333333</v>
       </c>
       <c r="N12">
-        <v>0.8001740000000001</v>
+        <v>0.24439</v>
       </c>
       <c r="O12">
-        <v>0.0541745827576984</v>
+        <v>0.04956746861823912</v>
       </c>
       <c r="P12">
-        <v>0.07300781059322826</v>
+        <v>0.05040207820148787</v>
       </c>
       <c r="Q12">
-        <v>4.506928221506445</v>
+        <v>1.819165544301111</v>
       </c>
       <c r="R12">
-        <v>40.56235399355801</v>
+        <v>16.37248989871</v>
       </c>
       <c r="S12">
-        <v>0.02268480190200897</v>
+        <v>0.01981739327073705</v>
       </c>
       <c r="T12">
-        <v>0.03128170565132077</v>
+        <v>0.02025193208481169</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H13">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I13">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J13">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.032601</v>
       </c>
       <c r="O13">
-        <v>0.002207201899191583</v>
+        <v>0.006612173347613296</v>
       </c>
       <c r="P13">
-        <v>0.002974512584950067</v>
+        <v>0.006723508128183256</v>
       </c>
       <c r="Q13">
-        <v>0.1836230206796667</v>
+        <v>0.2426720238543333</v>
       </c>
       <c r="R13">
-        <v>1.652607186117</v>
+        <v>2.184048214689</v>
       </c>
       <c r="S13">
-        <v>0.0009242330128289525</v>
+        <v>0.002643589500467689</v>
       </c>
       <c r="T13">
-        <v>0.00127449140554268</v>
+        <v>0.002701555865202937</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H14">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I14">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J14">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.644775</v>
+        <v>1.192621666666667</v>
       </c>
       <c r="N14">
-        <v>1.934325</v>
+        <v>3.577865</v>
       </c>
       <c r="O14">
-        <v>0.1309605783151976</v>
+        <v>0.7256668075935845</v>
       </c>
       <c r="P14">
-        <v>0.1764876554671187</v>
+        <v>0.7378854761830124</v>
       </c>
       <c r="Q14">
-        <v>10.894960261225</v>
+        <v>26.63254932755389</v>
       </c>
       <c r="R14">
-        <v>98.05464235102501</v>
+        <v>239.692943947985</v>
       </c>
       <c r="S14">
-        <v>0.05483779707801489</v>
+        <v>0.2901262644732011</v>
       </c>
       <c r="T14">
-        <v>0.07561978430190314</v>
+        <v>0.2964879045322016</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H15">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I15">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J15">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>3.8101695</v>
+        <v>0.08164349999999999</v>
       </c>
       <c r="N15">
-        <v>7.620339</v>
+        <v>0.163287</v>
       </c>
       <c r="O15">
-        <v>0.7738854657809741</v>
+        <v>0.04967709346699789</v>
       </c>
       <c r="P15">
-        <v>0.6952791097538666</v>
+        <v>0.03367569926464401</v>
       </c>
       <c r="Q15">
-        <v>64.38159868331051</v>
+        <v>1.8231888634905</v>
       </c>
       <c r="R15">
-        <v>386.2895920998631</v>
+        <v>10.939133180943</v>
       </c>
       <c r="S15">
-        <v>0.3240530446649474</v>
+        <v>0.01986122199148189</v>
       </c>
       <c r="T15">
-        <v>0.2979067072427747</v>
+        <v>0.01353114789611951</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H16">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I16">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J16">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.190892</v>
+        <v>0.2768883333333333</v>
       </c>
       <c r="N16">
-        <v>0.5726760000000001</v>
+        <v>0.830665</v>
       </c>
       <c r="O16">
-        <v>0.03877217124693842</v>
+        <v>0.1684764569735652</v>
       </c>
       <c r="P16">
-        <v>0.05225091160083631</v>
+        <v>0.1713132382226724</v>
       </c>
       <c r="Q16">
-        <v>3.225560473321334</v>
+        <v>6.183220045242779</v>
       </c>
       <c r="R16">
-        <v>29.030044259892</v>
+        <v>55.648980407185</v>
       </c>
       <c r="S16">
-        <v>0.01623527084613458</v>
+        <v>0.06735797283537294</v>
       </c>
       <c r="T16">
-        <v>0.02238798319562467</v>
+        <v>0.06883494073092228</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H17">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I17">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J17">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2667246666666667</v>
+        <v>0.08146333333333333</v>
       </c>
       <c r="N17">
-        <v>0.8001740000000001</v>
+        <v>0.24439</v>
       </c>
       <c r="O17">
-        <v>0.0541745827576984</v>
+        <v>0.04956746861823912</v>
       </c>
       <c r="P17">
-        <v>0.07300781059322826</v>
+        <v>0.05040207820148787</v>
       </c>
       <c r="Q17">
-        <v>0.733669938512</v>
+        <v>0.06798001118000001</v>
       </c>
       <c r="R17">
-        <v>4.402019631072</v>
+        <v>0.40788006708</v>
       </c>
       <c r="S17">
-        <v>0.003692793938271515</v>
+        <v>0.0007405519636865841</v>
       </c>
       <c r="T17">
-        <v>0.003394839520221126</v>
+        <v>0.0005045267682775259</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H18">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I18">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J18">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.032601</v>
       </c>
       <c r="O18">
-        <v>0.002207201899191583</v>
+        <v>0.006612173347613296</v>
       </c>
       <c r="P18">
-        <v>0.002974512584950067</v>
+        <v>0.006723508128183256</v>
       </c>
       <c r="Q18">
-        <v>0.029891465688</v>
+        <v>0.009068359362000001</v>
       </c>
       <c r="R18">
-        <v>0.179348794128</v>
+        <v>0.054410156172</v>
       </c>
       <c r="S18">
-        <v>0.0001504532453961134</v>
+        <v>9.878773504704091E-05</v>
       </c>
       <c r="T18">
-        <v>0.000138313870731527</v>
+        <v>6.730257855319622E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H19">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I19">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J19">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.644775</v>
+        <v>1.192621666666667</v>
       </c>
       <c r="N19">
-        <v>1.934325</v>
+        <v>3.577865</v>
       </c>
       <c r="O19">
-        <v>0.1309605783151976</v>
+        <v>0.7256668075935845</v>
       </c>
       <c r="P19">
-        <v>0.1764876554671187</v>
+        <v>0.7378854761830124</v>
       </c>
       <c r="Q19">
-        <v>1.7735593806</v>
+        <v>0.9952260841300001</v>
       </c>
       <c r="R19">
-        <v>10.6413562836</v>
+        <v>5.97135650478</v>
       </c>
       <c r="S19">
-        <v>0.008926887945180734</v>
+        <v>0.01084166680942551</v>
       </c>
       <c r="T19">
-        <v>0.008206618754110643</v>
+        <v>0.007386262391191417</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H20">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I20">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J20">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>3.8101695</v>
+        <v>0.08164349999999999</v>
       </c>
       <c r="N20">
-        <v>7.620339</v>
+        <v>0.163287</v>
       </c>
       <c r="O20">
-        <v>0.7738854657809741</v>
+        <v>0.04967709346699789</v>
       </c>
       <c r="P20">
-        <v>0.6952791097538666</v>
+        <v>0.03367569926464401</v>
       </c>
       <c r="Q20">
-        <v>10.480496077548</v>
+        <v>0.068130357741</v>
       </c>
       <c r="R20">
-        <v>41.921984310192</v>
+        <v>0.272521430964</v>
       </c>
       <c r="S20">
-        <v>0.05275166713759886</v>
+        <v>0.0007421897898512086</v>
       </c>
       <c r="T20">
-        <v>0.03233025316328991</v>
+        <v>0.0003370950628574507</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H21">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I21">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J21">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.190892</v>
+        <v>0.2768883333333333</v>
       </c>
       <c r="N21">
-        <v>0.5726760000000001</v>
+        <v>0.830665</v>
       </c>
       <c r="O21">
-        <v>0.03877217124693842</v>
+        <v>0.1684764569735652</v>
       </c>
       <c r="P21">
-        <v>0.05225091160083631</v>
+        <v>0.1713132382226724</v>
       </c>
       <c r="Q21">
-        <v>0.5250797522880001</v>
+        <v>0.23105943773</v>
       </c>
       <c r="R21">
-        <v>3.150478513728</v>
+        <v>1.38635662638</v>
       </c>
       <c r="S21">
-        <v>0.002642893247460651</v>
+        <v>0.002517085792854521</v>
       </c>
       <c r="T21">
-        <v>0.002429650447380387</v>
+        <v>0.001714852195144037</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H22">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I22">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J22">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2667246666666667</v>
+        <v>0.08146333333333333</v>
       </c>
       <c r="N22">
-        <v>0.8001740000000001</v>
+        <v>0.24439</v>
       </c>
       <c r="O22">
-        <v>0.0541745827576984</v>
+        <v>0.04956746861823912</v>
       </c>
       <c r="P22">
-        <v>0.07300781059322826</v>
+        <v>0.05040207820148787</v>
       </c>
       <c r="Q22">
-        <v>3.248119379008667</v>
+        <v>1.930914691148889</v>
       </c>
       <c r="R22">
-        <v>29.233074411078</v>
+        <v>17.37823222034</v>
       </c>
       <c r="S22">
-        <v>0.01634881698698529</v>
+        <v>0.02103475185456101</v>
       </c>
       <c r="T22">
-        <v>0.02254456013957501</v>
+        <v>0.02149598386425889</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H23">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I23">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J23">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.032601</v>
       </c>
       <c r="O23">
-        <v>0.002207201899191583</v>
+        <v>0.006612173347613296</v>
       </c>
       <c r="P23">
-        <v>0.002974512584950067</v>
+        <v>0.006723508128183256</v>
       </c>
       <c r="Q23">
-        <v>0.132336141733</v>
+        <v>0.2575790738006666</v>
       </c>
       <c r="R23">
-        <v>1.191025275597</v>
+        <v>2.318211664206</v>
       </c>
       <c r="S23">
-        <v>0.0006660898536977052</v>
+        <v>0.002805982017310625</v>
       </c>
       <c r="T23">
-        <v>0.0009185192284556671</v>
+        <v>0.002867509185967936</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H24">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I24">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J24">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.644775</v>
+        <v>1.192621666666667</v>
       </c>
       <c r="N24">
-        <v>1.934325</v>
+        <v>3.577865</v>
       </c>
       <c r="O24">
-        <v>0.1309605783151976</v>
+        <v>0.7256668075935845</v>
       </c>
       <c r="P24">
-        <v>0.1764876554671187</v>
+        <v>0.7378854761830124</v>
       </c>
       <c r="Q24">
-        <v>7.851940350225</v>
+        <v>28.26855473402111</v>
       </c>
       <c r="R24">
-        <v>70.66746315202501</v>
+        <v>254.41699260619</v>
       </c>
       <c r="S24">
-        <v>0.03952131088781981</v>
+        <v>0.3079483712268053</v>
       </c>
       <c r="T24">
-        <v>0.05449877938046404</v>
+        <v>0.3147007991673007</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H25">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I25">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J25">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>3.8101695</v>
+        <v>0.08164349999999999</v>
       </c>
       <c r="N25">
-        <v>7.620339</v>
+        <v>0.163287</v>
       </c>
       <c r="O25">
-        <v>0.7738854657809741</v>
+        <v>0.04967709346699789</v>
       </c>
       <c r="P25">
-        <v>0.6952791097538666</v>
+        <v>0.03367569926464401</v>
       </c>
       <c r="Q25">
-        <v>46.39947832693051</v>
+        <v>1.935185157987</v>
       </c>
       <c r="R25">
-        <v>278.396869961583</v>
+        <v>11.611110947922</v>
       </c>
       <c r="S25">
-        <v>0.2335433187465224</v>
+        <v>0.02108127292079691</v>
       </c>
       <c r="T25">
-        <v>0.2146997913821855</v>
+        <v>0.01436235000304121</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H26">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I26">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J26">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.190892</v>
+        <v>0.2768883333333333</v>
       </c>
       <c r="N26">
-        <v>0.5726760000000001</v>
+        <v>0.830665</v>
       </c>
       <c r="O26">
-        <v>0.03877217124693842</v>
+        <v>0.1684764569735652</v>
       </c>
       <c r="P26">
-        <v>0.05225091160083631</v>
+        <v>0.1713132382226724</v>
       </c>
       <c r="Q26">
-        <v>2.324644406708</v>
+        <v>6.563047800332222</v>
       </c>
       <c r="R26">
-        <v>20.921799660372</v>
+        <v>59.06743020299</v>
       </c>
       <c r="S26">
-        <v>0.01170067399945361</v>
+        <v>0.07149569192384682</v>
       </c>
       <c r="T26">
-        <v>0.0161349013120787</v>
+        <v>0.07306338817711285</v>
       </c>
     </row>
   </sheetData>
